--- a/_WIP/Michelle/Michelle_Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle_Zeiterfassung.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lazarus\Documents\GitHub\Voodoo\_WIP\Michelle\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="152">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -128,9 +123,6 @@
     <t>Mo., 23.04.2018</t>
   </si>
   <si>
-    <t>Konzept Fetisch, 3D Assets</t>
-  </si>
-  <si>
     <t>Di., 24.04.2018</t>
   </si>
   <si>
@@ -149,9 +141,6 @@
     <t>Do., 26.04.2018</t>
   </si>
   <si>
-    <t>3D Assets</t>
-  </si>
-  <si>
     <t>Fr., 27.04.2018</t>
   </si>
   <si>
@@ -474,12 +463,24 @@
   </si>
   <si>
     <t>So., 12.08.2018</t>
+  </si>
+  <si>
+    <t>Konzept Fetisch, 3D Assets (Wand, Tür)</t>
+  </si>
+  <si>
+    <t>3D Assets (Regal, Kisten, Boden- bzw. Deckenplatten)</t>
+  </si>
+  <si>
+    <t>3D Assets (Fenster, Schreibtisch)</t>
+  </si>
+  <si>
+    <t>Arzttermin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -1065,7 +1066,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1075,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,13 +1559,13 @@
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1574,14 +1575,14 @@
         <v>0</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="13">
         <v>0.5</v>
@@ -1595,16 +1596,16 @@
         <v>3</v>
       </c>
       <c r="F28" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="B29" s="13">
         <v>0.4375</v>
@@ -1621,28 +1622,38 @@
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0</v>
+      </c>
       <c r="E30" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+        <v>4.5</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>150</v>
+      </c>
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1657,7 +1668,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -1679,7 +1690,7 @@
       </c>
       <c r="E33" s="21">
         <f>SUM(E26:E32)</f>
-        <v>16.7</v>
+        <v>21.2</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1694,7 +1705,7 @@
       </c>
       <c r="E34" s="22">
         <f>SUM(E13+E23+E33)</f>
-        <v>63.55</v>
+        <v>68.05</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1728,7 +1739,7 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -1743,7 +1754,7 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -1758,7 +1769,7 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -1773,7 +1784,7 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -1788,7 +1799,7 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -1803,7 +1814,7 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -1818,7 +1829,7 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -1855,7 +1866,7 @@
       </c>
       <c r="E44" s="22">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>63.55</v>
+        <v>68.05</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1889,7 +1900,7 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -1904,7 +1915,7 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -1919,7 +1930,7 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -1934,7 +1945,7 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -1949,7 +1960,7 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -1964,7 +1975,7 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -1979,7 +1990,7 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -2016,7 +2027,7 @@
       </c>
       <c r="E54" s="22">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>63.55</v>
+        <v>68.05</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2050,7 +2061,7 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -2065,7 +2076,7 @@
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -2080,7 +2091,7 @@
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -2095,7 +2106,7 @@
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -2110,7 +2121,7 @@
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -2125,7 +2136,7 @@
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -2140,7 +2151,7 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -2177,7 +2188,7 @@
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>63.55</v>
+        <v>68.05</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2211,7 +2222,7 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -2226,7 +2237,7 @@
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -2241,7 +2252,7 @@
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -2256,7 +2267,7 @@
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -2271,7 +2282,7 @@
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -2286,7 +2297,7 @@
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -2301,7 +2312,7 @@
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -2338,7 +2349,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>63.55</v>
+        <v>68.05</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2372,7 +2383,7 @@
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -2387,7 +2398,7 @@
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -2402,7 +2413,7 @@
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -2417,7 +2428,7 @@
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -2432,7 +2443,7 @@
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -2447,7 +2458,7 @@
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -2462,7 +2473,7 @@
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -2499,7 +2510,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>63.55</v>
+        <v>68.05</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2533,7 +2544,7 @@
     </row>
     <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -2548,7 +2559,7 @@
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -2563,7 +2574,7 @@
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -2578,7 +2589,7 @@
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -2593,7 +2604,7 @@
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -2608,7 +2619,7 @@
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -2623,7 +2634,7 @@
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -2660,7 +2671,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>63.55</v>
+        <v>68.05</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2694,7 +2705,7 @@
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -2709,7 +2720,7 @@
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -2724,7 +2735,7 @@
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -2739,7 +2750,7 @@
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -2754,7 +2765,7 @@
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -2769,7 +2780,7 @@
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -2784,7 +2795,7 @@
     </row>
     <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
@@ -2821,7 +2832,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>63.55</v>
+        <v>68.05</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2855,7 +2866,7 @@
     </row>
     <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -2870,7 +2881,7 @@
     </row>
     <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -2885,7 +2896,7 @@
     </row>
     <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -2900,7 +2911,7 @@
     </row>
     <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -2915,7 +2926,7 @@
     </row>
     <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -2930,7 +2941,7 @@
     </row>
     <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -2945,7 +2956,7 @@
     </row>
     <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
@@ -2982,7 +2993,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>63.55</v>
+        <v>68.05</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3016,7 +3027,7 @@
     </row>
     <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -3031,7 +3042,7 @@
     </row>
     <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -3046,7 +3057,7 @@
     </row>
     <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -3061,7 +3072,7 @@
     </row>
     <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -3076,7 +3087,7 @@
     </row>
     <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -3091,7 +3102,7 @@
     </row>
     <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
@@ -3106,7 +3117,7 @@
     </row>
     <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
@@ -3143,7 +3154,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>63.55</v>
+        <v>68.05</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3177,7 +3188,7 @@
     </row>
     <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
@@ -3192,7 +3203,7 @@
     </row>
     <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -3207,7 +3218,7 @@
     </row>
     <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -3222,7 +3233,7 @@
     </row>
     <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -3237,7 +3248,7 @@
     </row>
     <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -3252,7 +3263,7 @@
     </row>
     <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -3267,7 +3278,7 @@
     </row>
     <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
@@ -3304,7 +3315,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>63.55</v>
+        <v>68.05</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3338,7 +3349,7 @@
     </row>
     <row r="136" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -3353,7 +3364,7 @@
     </row>
     <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -3368,7 +3379,7 @@
     </row>
     <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -3383,7 +3394,7 @@
     </row>
     <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -3398,7 +3409,7 @@
     </row>
     <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -3413,7 +3424,7 @@
     </row>
     <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -3428,7 +3439,7 @@
     </row>
     <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B142" s="16"/>
       <c r="C142" s="16"/>
@@ -3465,7 +3476,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>63.55</v>
+        <v>68.05</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3499,7 +3510,7 @@
     </row>
     <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -3514,7 +3525,7 @@
     </row>
     <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -3529,7 +3540,7 @@
     </row>
     <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -3544,7 +3555,7 @@
     </row>
     <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -3559,7 +3570,7 @@
     </row>
     <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -3574,7 +3585,7 @@
     </row>
     <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -3589,7 +3600,7 @@
     </row>
     <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B152" s="16"/>
       <c r="C152" s="16"/>
@@ -3626,7 +3637,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>63.55</v>
+        <v>68.05</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3660,7 +3671,7 @@
     </row>
     <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -3675,7 +3686,7 @@
     </row>
     <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -3690,7 +3701,7 @@
     </row>
     <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -3705,7 +3716,7 @@
     </row>
     <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -3720,7 +3731,7 @@
     </row>
     <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -3735,7 +3746,7 @@
     </row>
     <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -3750,7 +3761,7 @@
     </row>
     <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B162" s="16"/>
       <c r="C162" s="16"/>
@@ -3786,7 +3797,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>63.55</v>
+        <v>68.05</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3820,7 +3831,7 @@
     </row>
     <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -3835,7 +3846,7 @@
     </row>
     <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -3850,7 +3861,7 @@
     </row>
     <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -3865,7 +3876,7 @@
     </row>
     <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -3880,7 +3891,7 @@
     </row>
     <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -3895,7 +3906,7 @@
     </row>
     <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -3910,7 +3921,7 @@
     </row>
     <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B172" s="16"/>
       <c r="C172" s="16"/>
@@ -3947,7 +3958,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>63.55</v>
+        <v>68.05</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -3981,7 +3992,7 @@
     </row>
     <row r="176" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -3996,7 +4007,7 @@
     </row>
     <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -4011,7 +4022,7 @@
     </row>
     <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -4026,7 +4037,7 @@
     </row>
     <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -4041,7 +4052,7 @@
     </row>
     <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -4056,7 +4067,7 @@
     </row>
     <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -4071,7 +4082,7 @@
     </row>
     <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B182" s="16"/>
       <c r="C182" s="16"/>
@@ -4108,7 +4119,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>63.55</v>
+        <v>68.05</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
